--- a/02_Data/04_Social indicators/02_Cleaned Data/Age class.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/Age class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74915F9D-68AC-48A8-9BFE-5A4B208C17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03CE7D-6519-4301-866D-5E795FFD0AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40635" yWindow="945" windowWidth="13770" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>nuts_level</t>
+  </si>
+  <si>
+    <t>nuts_name</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,15 +385,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2019</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2020</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2021</v>
       </c>
     </row>
